--- a/input/responses/responses_2024-01-09_hard_copies_easyread.xlsx
+++ b/input/responses/responses_2024-01-09_hard_copies_easyread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthsharedservice.sharepoint.com/sites/sr-ple-ea/analytlead/Statistics and Data Science/Data Science/Products &amp; Projects/20240319_consultation_training/consultation_example/input/responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{79E39BC7-D2D9-491C-B6B2-B4647F2BE529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E50E742F-14AA-4187-BCCF-98ED9DE50DA1}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{79E39BC7-D2D9-491C-B6B2-B4647F2BE529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4C69814-E453-4747-9D47-24DE9386ADDD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29835" yWindow="-1065" windowWidth="20805" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Where do you live in the UK?</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Definitely disagree</t>
   </si>
   <si>
-    <t>20-30</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>If you would like to tell us anything else about this, please write it here._1</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>twenty six</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -999,37 +1004,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
@@ -1080,6 +1085,9 @@
       </c>
       <c r="L2" t="s">
         <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1095,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1104,19 +1112,22 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1132,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>87</v>
@@ -1144,10 +1155,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -1157,6 +1168,9 @@
       </c>
       <c r="K4" t="s">
         <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1271,12 +1285,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9abbd945-6b4f-4b5b-8fd0-36fd6d2dad7d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1491,19 +1506,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9abbd945-6b4f-4b5b-8fd0-36fd6d2dad7d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2608A2-EE5D-4B6E-BD57-689A58CF73DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED508B2-A570-4F56-A78C-BA969B70DE9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9abbd945-6b4f-4b5b-8fd0-36fd6d2dad7d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1528,11 +1544,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED508B2-A570-4F56-A78C-BA969B70DE9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2608A2-EE5D-4B6E-BD57-689A58CF73DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9abbd945-6b4f-4b5b-8fd0-36fd6d2dad7d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>